--- a/Data/acer_data.xlsx
+++ b/Data/acer_data.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="187">
   <si>
     <t>section</t>
   </si>
@@ -48,9 +49,6 @@
     <t>inflorescence type</t>
   </si>
   <si>
-    <t>hysteranthy</t>
-  </si>
-  <si>
     <t>author</t>
   </si>
   <si>
@@ -96,24 +94,9 @@
     <t>yellow-green</t>
   </si>
   <si>
-    <t>dystylum</t>
-  </si>
-  <si>
-    <t>Siebold &amp; Zyccarini</t>
-  </si>
-  <si>
     <t>parviflora</t>
   </si>
   <si>
-    <t>distyla</t>
-  </si>
-  <si>
-    <t>shub</t>
-  </si>
-  <si>
-    <t>10-15</t>
-  </si>
-  <si>
     <t>5-8</t>
   </si>
   <si>
@@ -183,17 +166,454 @@
     <t>50-200</t>
   </si>
   <si>
-    <t>35-70</t>
+    <t>circinatum</t>
+  </si>
+  <si>
+    <t>Pursh</t>
+  </si>
+  <si>
+    <t>palmata</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>corymbose-clusters</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>japonicum</t>
+  </si>
+  <si>
+    <t>Thunburg ex Murray</t>
+  </si>
+  <si>
+    <t>hysteranthous</t>
+  </si>
+  <si>
+    <t>anthy</t>
+  </si>
+  <si>
+    <t>drooping</t>
+  </si>
+  <si>
+    <t>corymbose</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>large shrub/small tree</t>
+  </si>
+  <si>
+    <t>8-10</t>
+  </si>
+  <si>
+    <t>palmatum</t>
+  </si>
+  <si>
+    <t>small tree</t>
+  </si>
+  <si>
+    <t>Thunberg ex Murray</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>5-25</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>cream/red-purple</t>
+  </si>
+  <si>
+    <t>flowers</t>
+  </si>
+  <si>
+    <t>if / 1st is petal, 2nd sepals</t>
+  </si>
+  <si>
+    <t>pseudosieboldianum</t>
+  </si>
+  <si>
+    <t>psuedosieboldianum</t>
+  </si>
+  <si>
+    <t>(Pax) Komarov</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>shirasawanum</t>
+  </si>
+  <si>
+    <t>Koidzumi</t>
+  </si>
+  <si>
+    <t>upright</t>
+  </si>
+  <si>
+    <t>white/purple</t>
+  </si>
+  <si>
+    <t>9-12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>tenufolium</t>
+  </si>
+  <si>
+    <t>yellow/purple</t>
+  </si>
+  <si>
+    <t>shrub/small tree</t>
+  </si>
+  <si>
+    <t>sieboldianum</t>
+  </si>
+  <si>
+    <t>Miquel</t>
+  </si>
+  <si>
+    <t>densly corymbose</t>
+  </si>
+  <si>
+    <t>pale yellow</t>
+  </si>
+  <si>
+    <t>flower size</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>2.5-4</t>
+  </si>
+  <si>
+    <t>sinensia</t>
+  </si>
+  <si>
+    <t>20-250</t>
+  </si>
+  <si>
+    <t>campbellii</t>
+  </si>
+  <si>
+    <t>sinense</t>
+  </si>
+  <si>
+    <t>(Pax) de Jong</t>
+  </si>
+  <si>
+    <t>paniculate</t>
+  </si>
+  <si>
+    <t>erianthum</t>
+  </si>
+  <si>
+    <t>Schwerin</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>oliverianum</t>
+  </si>
+  <si>
+    <t>formisanum</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>tutcheri</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>crataefolium</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>davidii</t>
+  </si>
+  <si>
+    <t>149( at arb)</t>
+  </si>
+  <si>
+    <t>pensylvanicum</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>rufinerve</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>sikkinense</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>tegmentosum</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>synanthous/hysteranthous</t>
+  </si>
+  <si>
+    <t>tschonoskii</t>
+  </si>
+  <si>
+    <t>162(arb)</t>
+  </si>
+  <si>
+    <t>argutum</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>negundo</t>
+  </si>
+  <si>
+    <t>170 (arb and other confirmation)</t>
+  </si>
+  <si>
+    <t>henryii</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>heldreichii</t>
+  </si>
+  <si>
+    <t>trautvetteri</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>pseduoplatanus</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>velutinum</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>hyrcanum</t>
+  </si>
+  <si>
+    <t>hycanum</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>momspessulanum</t>
+  </si>
+  <si>
+    <t>cinerascens</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>opalus</t>
+  </si>
+  <si>
+    <t>obtusarum</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>hysteranthous/synanthous</t>
+  </si>
+  <si>
+    <t>saccharum</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>oblongum</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>paxii</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>maximowiczianum</t>
+  </si>
+  <si>
+    <t>triflorum</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206 (arb)</t>
+  </si>
+  <si>
+    <t>sterculiaceum</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>thomsinii</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>macroyphyllum</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>synanthous/seranthous</t>
+  </si>
+  <si>
+    <t>cappadocicum</t>
+  </si>
+  <si>
+    <t>lobelii</t>
+  </si>
+  <si>
+    <t>mono</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>ambiguum</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>platinoides</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>trucatum</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>tataricum</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>pycnanthum</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>rubrum</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>saccharinum</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>(arb)</t>
+  </si>
+  <si>
+    <t>arb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -216,14 +636,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,236 +978,1086 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="19.1640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="18.6640625" style="1" customWidth="1"/>
-    <col min="9" max="14" width="19.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1"/>
-    <col min="16" max="16" width="13.83203125" style="1" customWidth="1"/>
-    <col min="17" max="19" width="10.83203125" style="1"/>
-    <col min="20" max="20" width="14" style="1" customWidth="1"/>
-    <col min="21" max="34" width="10.83203125" style="1"/>
+    <col min="1" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="19.1640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16" width="19.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="13.83203125" style="1" customWidth="1"/>
+    <col min="19" max="21" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="14" style="1" customWidth="1"/>
+    <col min="23" max="36" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="1">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1">
         <v>5</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>20</v>
+      <c r="R2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="U9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="V12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>47</v>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G11:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="11" spans="7:7">
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
